--- a/ProductLifecycle.xlsx
+++ b/ProductLifecycle.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/marinma_microsoft_com/Documents/MS/IP/Azure/Arc/ArcDashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/marinma_microsoft_com/Documents/MS/IP/Azure/Arc/ArcDashboard/ProductLifecycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="13_ncr:101_{E08A3AFC-7F7F-4DF0-964D-9DFAAB58550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE89B1E3-F1EE-44D5-B49A-62011D98B042}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:101_{E08A3AFC-7F7F-4DF0-964D-9DFAAB58550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E9CFBA-66BC-40BA-9E24-316755955D49}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F101B0D7-EE75-4F00-B8B9-EF6AEAB46F08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{F101B0D7-EE75-4F00-B8B9-EF6AEAB46F08}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLifecycle" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProductLifecycle!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProductLifecycle!$A$1:$F$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="226">
   <si>
     <t>Amazon Linux 2</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>Windows 11 Enterprise</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04.2 LTS</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04.3 LTS</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1330,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C44A62F-1B70-43DD-B7C4-B92B4D45F557}" name="ProductLifecycle" displayName="ProductLifecycle" ref="A1:L124" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:L124" xr:uid="{3B9240C1-6AC6-450B-B825-FF7619896A12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C44A62F-1B70-43DD-B7C4-B92B4D45F557}" name="ProductLifecycle" displayName="ProductLifecycle" ref="A1:L126" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:L126" xr:uid="{3B9240C1-6AC6-450B-B825-FF7619896A12}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{03DD380E-4CBD-4AF4-A333-BBB151740B8A}" name="Product"/>
     <tableColumn id="8" xr3:uid="{40F3BF2C-2608-4F0E-9DA8-4D12D683F91C}" name="ProductFriendlyName"/>
@@ -1661,13 +1667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9240C1-6AC6-450B-B825-FF7619896A12}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3341,7 +3347,7 @@
         <v>47313</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3455,7 +3461,7 @@
         <v>47313</v>
       </c>
       <c r="G55" s="3">
-        <v>205.7</v>
+        <v>187</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3607,7 +3613,7 @@
         <v>47768</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3721,7 +3727,7 @@
         <v>47768</v>
       </c>
       <c r="G62" s="3">
-        <v>205.7</v>
+        <v>187</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3873,7 +3879,7 @@
         <v>48587</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
@@ -3987,7 +3993,7 @@
         <v>48587</v>
       </c>
       <c r="G69" s="3">
-        <v>205.7</v>
+        <v>187</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -4101,7 +4107,7 @@
         <v>49685</v>
       </c>
       <c r="G72" s="3">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -4215,7 +4221,7 @@
         <v>49685</v>
       </c>
       <c r="G75" s="3">
-        <v>205.7</v>
+        <v>187</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -4541,22 +4547,22 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>42</v>
       </c>
       <c r="D85" s="1">
-        <v>47209</v>
+        <v>46478</v>
       </c>
       <c r="E85" s="1">
-        <v>49064</v>
+        <v>48334</v>
       </c>
       <c r="F85" s="1">
-        <v>49795</v>
+        <v>48334</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="b">
@@ -4569,48 +4575,62 @@
         <v>61</v>
       </c>
       <c r="K85" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D86" s="1">
+        <v>46478</v>
+      </c>
+      <c r="E86" s="1">
+        <v>48334</v>
+      </c>
+      <c r="F86" s="1">
+        <v>48334</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K86" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D87" s="1">
-        <v>45944</v>
+        <v>47209</v>
       </c>
       <c r="E87" s="1">
-        <v>45944</v>
+        <v>49064</v>
       </c>
       <c r="F87" s="1">
-        <v>45944</v>
+        <v>49795</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="1" t="b">
@@ -4620,50 +4640,36 @@
         <v>0</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="1">
-        <v>45944</v>
-      </c>
-      <c r="E88" s="1">
-        <v>45944</v>
-      </c>
-      <c r="F88" s="1">
-        <v>45944</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K88" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>50</v>
@@ -4691,13 +4697,13 @@
         <v>68</v>
       </c>
       <c r="K89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
         <v>50</v>
@@ -4765,7 +4771,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -4799,7 +4805,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -4833,22 +4839,22 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="E94" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="F94" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="1" t="b">
@@ -4867,22 +4873,22 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="E95" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="F95" s="1">
-        <v>47400</v>
+        <v>45944</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="1" t="b">
@@ -4901,7 +4907,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s">
         <v>51</v>
@@ -4935,10 +4941,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
         <v>49</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
@@ -5003,20 +5009,24 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="3">
-        <v>6.375</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D99" s="1">
+        <v>47400</v>
+      </c>
+      <c r="E99" s="1">
+        <v>47400</v>
+      </c>
+      <c r="F99" s="1">
+        <v>47400</v>
+      </c>
+      <c r="G99" s="3"/>
       <c r="H99" s="1" t="b">
         <v>1</v>
       </c>
@@ -5026,25 +5036,33 @@
       <c r="J99" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K99" s="1"/>
+      <c r="K99" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D100" s="1">
+        <v>47400</v>
+      </c>
+      <c r="E100" s="1">
+        <v>47400</v>
+      </c>
+      <c r="F100" s="1">
+        <v>47400</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="1" t="b">
         <v>0</v>
@@ -5059,7 +5077,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
         <v>161</v>
@@ -5070,9 +5088,11 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="3"/>
+      <c r="G101" s="3">
+        <v>6.375</v>
+      </c>
       <c r="H101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="1" t="b">
         <v>0</v>
@@ -5080,30 +5100,22 @@
       <c r="J101" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>47</v>
       </c>
-      <c r="D102" s="1">
-        <v>42017</v>
-      </c>
-      <c r="E102" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F102" s="1">
-        <v>43844</v>
-      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="3"/>
       <c r="H102" s="1" t="b">
         <v>0</v>
@@ -5112,34 +5124,26 @@
         <v>0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="K102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="1">
-        <v>42017</v>
-      </c>
-      <c r="E103" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F103" s="1">
-        <v>43844</v>
-      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="3"/>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -5148,97 +5152,91 @@
         <v>0</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="K103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
         <v>47</v>
       </c>
       <c r="D104" s="1">
-        <v>43382</v>
+        <v>42017</v>
       </c>
       <c r="E104" s="1">
-        <v>45209</v>
+        <v>43844</v>
       </c>
       <c r="F104" s="1">
-        <v>46308</v>
-      </c>
-      <c r="G104" s="3">
-        <v>37</v>
-      </c>
+        <v>43844</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
         <v>47</v>
       </c>
       <c r="D105" s="1">
-        <v>43382</v>
+        <v>42017</v>
       </c>
       <c r="E105" s="1">
-        <v>45209</v>
+        <v>43844</v>
       </c>
       <c r="F105" s="1">
-        <v>46308</v>
-      </c>
-      <c r="G105" s="3">
-        <v>6.375</v>
-      </c>
+        <v>43844</v>
+      </c>
+      <c r="G105" s="3"/>
       <c r="H105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
         <v>47</v>
@@ -5268,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
         <v>47</v>
@@ -5291,10 +5289,10 @@
         <v>46308</v>
       </c>
       <c r="G107" s="3">
-        <v>37</v>
+        <v>6.375</v>
       </c>
       <c r="H107" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="1" t="b">
         <v>0</v>
@@ -5306,12 +5304,12 @@
         <v>0</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -5329,7 +5327,7 @@
         <v>46308</v>
       </c>
       <c r="G108" s="3">
-        <v>6.375</v>
+        <v>37</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>1</v>
@@ -5349,63 +5347,63 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
         <v>47</v>
       </c>
       <c r="D109" s="1">
-        <v>44572</v>
+        <v>43382</v>
       </c>
       <c r="E109" s="1">
-        <v>46399</v>
+        <v>45209</v>
       </c>
       <c r="F109" s="1">
-        <v>46399</v>
-      </c>
-      <c r="G109" s="6">
-        <v>6.375</v>
+        <v>46308</v>
+      </c>
+      <c r="G109" s="3">
+        <v>37</v>
       </c>
       <c r="H109" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="5" t="s">
         <v>68</v>
       </c>
       <c r="K109" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
         <v>47</v>
       </c>
       <c r="D110" s="1">
-        <v>44572</v>
+        <v>43382</v>
       </c>
       <c r="E110" s="1">
-        <v>46399</v>
+        <v>45209</v>
       </c>
       <c r="F110" s="1">
-        <v>46399</v>
+        <v>46308</v>
       </c>
       <c r="G110" s="3">
-        <v>37</v>
+        <v>6.375</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>1</v>
@@ -5420,12 +5418,12 @@
         <v>0</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
         <v>54</v>
@@ -5442,7 +5440,7 @@
       <c r="F111" s="1">
         <v>46399</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="6">
         <v>6.375</v>
       </c>
       <c r="H111" s="1" t="b">
@@ -5451,11 +5449,11 @@
       <c r="I111" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J111" s="5" t="s">
+      <c r="J111" s="7" t="s">
         <v>68</v>
       </c>
       <c r="K111" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>219</v>
@@ -5463,25 +5461,25 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
         <v>47</v>
       </c>
       <c r="D112" s="1">
-        <v>45300</v>
+        <v>44572</v>
       </c>
       <c r="E112" s="1">
-        <v>47127</v>
+        <v>46399</v>
       </c>
       <c r="F112" s="1">
-        <v>47127</v>
+        <v>46399</v>
       </c>
       <c r="G112" s="3">
-        <v>6.375</v>
+        <v>37</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>1</v>
@@ -5493,33 +5491,33 @@
         <v>68</v>
       </c>
       <c r="K112" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C113" t="s">
         <v>47</v>
       </c>
       <c r="D113" s="1">
-        <v>45300</v>
+        <v>44572</v>
       </c>
       <c r="E113" s="1">
-        <v>47127</v>
+        <v>46399</v>
       </c>
       <c r="F113" s="1">
-        <v>47127</v>
+        <v>46399</v>
       </c>
       <c r="G113" s="3">
-        <v>37</v>
+        <v>6.375</v>
       </c>
       <c r="H113" s="1" t="b">
         <v>1</v>
@@ -5534,12 +5532,12 @@
         <v>0</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
         <v>52</v>
@@ -5557,10 +5555,10 @@
         <v>47127</v>
       </c>
       <c r="G114" s="3">
-        <v>37</v>
+        <v>6.375</v>
       </c>
       <c r="H114" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" s="1" t="b">
         <v>0</v>
@@ -5569,7 +5567,7 @@
         <v>68</v>
       </c>
       <c r="K114" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>218</v>
@@ -5577,7 +5575,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>52</v>
@@ -5595,7 +5593,7 @@
         <v>47127</v>
       </c>
       <c r="G115" s="3">
-        <v>6.375</v>
+        <v>37</v>
       </c>
       <c r="H115" s="1" t="b">
         <v>1</v>
@@ -5615,10 +5613,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
         <v>47</v>
@@ -5633,10 +5631,10 @@
         <v>47127</v>
       </c>
       <c r="G116" s="3">
-        <v>6.375</v>
+        <v>37</v>
       </c>
       <c r="H116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1" t="b">
         <v>0</v>
@@ -5645,7 +5643,7 @@
         <v>68</v>
       </c>
       <c r="K116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>218</v>
@@ -5653,24 +5651,26 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
       </c>
       <c r="D117" s="1">
-        <v>46308</v>
+        <v>45300</v>
       </c>
       <c r="E117" s="1">
-        <v>48135</v>
+        <v>47127</v>
       </c>
       <c r="F117" s="1">
-        <v>48135</v>
-      </c>
-      <c r="G117" s="3"/>
+        <v>47127</v>
+      </c>
+      <c r="G117" s="3">
+        <v>6.375</v>
+      </c>
       <c r="H117" s="1" t="b">
         <v>1</v>
       </c>
@@ -5681,32 +5681,34 @@
         <v>68</v>
       </c>
       <c r="K117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
         <v>47</v>
       </c>
       <c r="D118" s="1">
-        <v>46308</v>
+        <v>45300</v>
       </c>
       <c r="E118" s="1">
-        <v>48135</v>
+        <v>47127</v>
       </c>
       <c r="F118" s="1">
-        <v>48135</v>
-      </c>
-      <c r="G118" s="3"/>
+        <v>47127</v>
+      </c>
+      <c r="G118" s="3">
+        <v>6.375</v>
+      </c>
       <c r="H118" s="1" t="b">
         <v>1</v>
       </c>
@@ -5717,15 +5719,15 @@
         <v>68</v>
       </c>
       <c r="K118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
         <v>53</v>
@@ -5753,7 +5755,7 @@
         <v>68</v>
       </c>
       <c r="K119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>217</v>
@@ -5761,7 +5763,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
         <v>53</v>
@@ -5780,7 +5782,7 @@
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" s="1" t="b">
         <v>0</v>
@@ -5797,7 +5799,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
         <v>53</v>
@@ -5833,24 +5835,26 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
         <v>47</v>
       </c>
       <c r="D122" s="1">
-        <v>47400</v>
+        <v>46308</v>
       </c>
       <c r="E122" s="1">
-        <v>49227</v>
-      </c>
-      <c r="F122" s="1"/>
+        <v>48135</v>
+      </c>
+      <c r="F122" s="1">
+        <v>48135</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1" t="b">
         <v>0</v>
@@ -5862,67 +5866,63 @@
         <v>0</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1">
-        <v>42017</v>
+        <v>46308</v>
       </c>
       <c r="E123" s="1">
-        <v>43844</v>
+        <v>48135</v>
       </c>
       <c r="F123" s="1">
-        <v>43844</v>
+        <v>48135</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="K123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="C124" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="1">
-        <v>44572</v>
+        <v>47400</v>
       </c>
       <c r="E124" s="1">
-        <v>46399</v>
-      </c>
-      <c r="F124" s="1">
-        <v>46399</v>
-      </c>
-      <c r="G124" s="3">
-        <v>6.375</v>
-      </c>
+        <v>49227</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="3"/>
       <c r="H124" s="1" t="b">
         <v>1</v>
       </c>
@@ -5933,9 +5933,83 @@
         <v>68</v>
       </c>
       <c r="K124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E125" s="1">
+        <v>43844</v>
+      </c>
+      <c r="F125" s="1">
+        <v>43844</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="1">
+        <v>44572</v>
+      </c>
+      <c r="E126" s="1">
+        <v>46399</v>
+      </c>
+      <c r="F126" s="1">
+        <v>46399</v>
+      </c>
+      <c r="G126" s="3">
+        <v>6.375</v>
+      </c>
+      <c r="H126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5982,9 +6056,9 @@
     <hyperlink ref="J35" r:id="rId38" display="https://ubuntu.com/about/release-cycle" xr:uid="{43FD7EF7-00C2-4BA3-9BEE-DA30048A604E}"/>
     <hyperlink ref="J36" r:id="rId39" display="https://ubuntu.com/about/release-cycle" xr:uid="{65D29308-034F-46F8-BB79-927F53619C9B}"/>
     <hyperlink ref="J19" r:id="rId40" xr:uid="{47AF47CE-2737-4BB5-AA01-0A374BBEEB8E}"/>
-    <hyperlink ref="J123" r:id="rId41" xr:uid="{373887E4-74C5-4783-B8FD-DED5C743DC2D}"/>
-    <hyperlink ref="J102" r:id="rId42" xr:uid="{29877CF1-D531-4CBE-AD9B-688A1DD4E1D9}"/>
-    <hyperlink ref="J103" r:id="rId43" xr:uid="{5A639A78-F170-4BF4-8CBA-4D6350504E6B}"/>
+    <hyperlink ref="J125" r:id="rId41" xr:uid="{373887E4-74C5-4783-B8FD-DED5C743DC2D}"/>
+    <hyperlink ref="J104" r:id="rId42" xr:uid="{29877CF1-D531-4CBE-AD9B-688A1DD4E1D9}"/>
+    <hyperlink ref="J105" r:id="rId43" xr:uid="{5A639A78-F170-4BF4-8CBA-4D6350504E6B}"/>
     <hyperlink ref="J70" r:id="rId44" display="https://learn.microsoft.com/en-us/lifecycle/products/sql-server-2017" xr:uid="{F4567BF4-18AE-443C-8AC6-3F0AB60AC745}"/>
     <hyperlink ref="J55:J57" r:id="rId45" display="https://learn.microsoft.com/en-us/lifecycle/products/sql-server-2017" xr:uid="{2145BCA4-49F1-4F26-83D9-20EA483C448C}"/>
     <hyperlink ref="J3" r:id="rId46" xr:uid="{7BE7EAFB-2E56-4729-81CA-B1F58AE246D4}"/>
@@ -5994,7 +6068,7 @@
     <hyperlink ref="J33" r:id="rId50" display="https://ubuntu.com/about/release-cycle" xr:uid="{F270EE9C-C3A0-45E2-955B-10DBBD5EA939}"/>
     <hyperlink ref="J49" r:id="rId51" xr:uid="{28F31A1E-41C9-4DA3-9278-4B6BA4E456F3}"/>
     <hyperlink ref="J56" r:id="rId52" xr:uid="{B86EF947-7BA1-45A9-BD8D-B9292A030200}"/>
-    <hyperlink ref="J122" r:id="rId53" xr:uid="{6FCCDE1D-7AB1-4A22-9B61-AF173EAB6702}"/>
+    <hyperlink ref="J124" r:id="rId53" xr:uid="{6FCCDE1D-7AB1-4A22-9B61-AF173EAB6702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
